--- a/data/trans_camb/P45C_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.586315847998248</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-4.623586856588013</v>
+        <v>-4.623586856588015</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.555234576797905</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8786233426812553</v>
+        <v>1.521661934839202</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.016350380658912</v>
+        <v>-2.390194149853576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.019212755266916</v>
+        <v>-2.943375403421628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.330409836732418</v>
+        <v>-8.596839996820773</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.267913987009122</v>
+        <v>-2.909977589311925</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.631290200752378</v>
+        <v>-9.929339419022186</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.19128760799146</v>
+        <v>-1.319448679948332</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.694155500837254</v>
+        <v>-0.7717265622126955</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.37580318642471</v>
+        <v>-4.409097876215916</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.36329983577087</v>
+        <v>12.01928363750165</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.592758501825146</v>
+        <v>7.484139979169319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.762357875327968</v>
+        <v>6.526069588821082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.052245478787656</v>
+        <v>3.253719050296699</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.514623623109333</v>
+        <v>9.988974750855748</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.2929073553631764</v>
+        <v>0.1886292040402914</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.41997814272848</v>
+        <v>6.784083046183062</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.049913991292923</v>
+        <v>7.086507780201766</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.323525098803477</v>
+        <v>2.58018539033165</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2218631248759025</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2860326506686059</v>
+        <v>-0.286032650668606</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1707602458841626</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05188203006110208</v>
+        <v>0.09072845515259137</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1304227475772141</v>
+        <v>-0.1495967051255828</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1813518161058952</v>
+        <v>-0.176862847473061</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4424516031165641</v>
+        <v>-0.4463466527117403</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1145615311002035</v>
+        <v>-0.1494910398444535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5009336716219835</v>
+        <v>-0.5004034412173293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07230159633864118</v>
+        <v>-0.08278590269294858</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04765185268635327</v>
+        <v>-0.04451527529674377</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2548244095620433</v>
+        <v>-0.2600346518103147</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9839341747172778</v>
+        <v>1.003218241759508</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6717999074902882</v>
+        <v>0.6313114151496452</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5441549214467601</v>
+        <v>0.5346892764103564</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2422772016286429</v>
+        <v>0.2796420340386932</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7229060282502603</v>
+        <v>0.741855148976924</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0160337495609073</v>
+        <v>0.02615202274559469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4735633001796029</v>
+        <v>0.502515782223915</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5139574905138496</v>
+        <v>0.5214945201135335</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1870157408097529</v>
+        <v>0.2062698442017859</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.822000985060077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3162971638102113</v>
+        <v>0.3162971638102086</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3639000732154007</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.635878574904848</v>
+        <v>-6.397037261817793</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.882928413897242</v>
+        <v>-9.010244775226246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.07292403017279</v>
+        <v>-5.276256673656517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.152790569919132</v>
+        <v>-5.948702072318715</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.544608049033388</v>
+        <v>-5.204068904005001</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.68675305081574</v>
+        <v>-6.105065089613699</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.540331225004764</v>
+        <v>-4.402667340282136</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.497677482416184</v>
+        <v>-5.372916299989276</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.944008182390926</v>
+        <v>-4.324162653199978</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.522164356238008</v>
+        <v>4.045542855575921</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.150608277194507</v>
+        <v>1.94683793843614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.1872312819806</v>
+        <v>5.507417000801728</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.006443776908058</v>
+        <v>6.033596568197961</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.961842174216464</v>
+        <v>5.401619255787502</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.231648590092875</v>
+        <v>3.628752340812214</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.078746060382755</v>
+        <v>3.323635804858708</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.131562807119005</v>
+        <v>2.00022659593704</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.385160880902507</v>
+        <v>2.757409145548759</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2411928036406374</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.01996038201485907</v>
+        <v>0.01996038201485889</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02222665949683927</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3636909207649519</v>
+        <v>-0.3443379626936664</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4883840633726537</v>
+        <v>-0.4843321732579818</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2684574270001417</v>
+        <v>-0.2793311196086952</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2832450113111493</v>
+        <v>-0.3086837155445284</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2882515434091752</v>
+        <v>-0.2794858332233761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3469432900856864</v>
+        <v>-0.3242663547817509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2504444102668861</v>
+        <v>-0.2460677073302112</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3102121882811574</v>
+        <v>-0.299431144026749</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2212770869925579</v>
+        <v>-0.2375110892288236</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2620650444543918</v>
+        <v>0.3096119948662933</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.09910019985791119</v>
+        <v>0.1641907259631108</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3926404985001487</v>
+        <v>0.4290200047171993</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4372956118793501</v>
+        <v>0.4422661759571983</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4281351927081228</v>
+        <v>0.3903275971115331</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2402470138041955</v>
+        <v>0.2651105761165288</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2132788944282238</v>
+        <v>0.2351825467722825</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1510074003011038</v>
+        <v>0.1429605510795162</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.242542837753443</v>
+        <v>0.18720430162657</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.492888199963744</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9708262402901374</v>
+        <v>0.9708262402901346</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-3.238265092046985</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.861079965830756</v>
+        <v>-8.490316474793833</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.29473393152521</v>
+        <v>-11.55762912210773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.94408058868081</v>
+        <v>-6.921868334843715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.171909099497544</v>
+        <v>-6.687571130335014</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.216133166067234</v>
+        <v>-9.575974343110767</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.743465460482656</v>
+        <v>-6.035218354793418</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.949382355773748</v>
+        <v>-6.97872841278107</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.63129294653109</v>
+        <v>-9.742191880824452</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.857239434031593</v>
+        <v>-5.823015010987795</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08692369218283515</v>
+        <v>0.1392685636590296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.162646498746457</v>
+        <v>-2.531544437411672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.454448808779591</v>
+        <v>3.061439785380015</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.887563744847887</v>
+        <v>5.995998606999137</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.509482238330853</v>
+        <v>4.471391094344138</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.888480492156267</v>
+        <v>7.626394575135525</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7015934132500791</v>
+        <v>0.4637643624944898</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.056490323524228</v>
+        <v>-1.820453425253659</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.378518749622684</v>
+        <v>2.723857794830844</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1789539952004181</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06969154667579874</v>
+        <v>0.06969154667579855</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1802365530275502</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3969685289884837</v>
+        <v>-0.3963399837323192</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5266073895584413</v>
+        <v>-0.5222314000842962</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.323758039438435</v>
+        <v>-0.313716030978289</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3952696856970315</v>
+        <v>-0.3845339181022258</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5304674431825003</v>
+        <v>-0.5708669301262596</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3332387826627298</v>
+        <v>-0.3325154546771226</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3437517191483477</v>
+        <v>-0.3460623611458021</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4794359430428545</v>
+        <v>-0.480269220658594</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2458055544636978</v>
+        <v>-0.2914811698401626</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0109454352177702</v>
+        <v>0.01254857148037336</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1220299222860857</v>
+        <v>-0.1361921398108518</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2004854139669008</v>
+        <v>0.1778073751147471</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5815109724310396</v>
+        <v>0.5686177502573492</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4718673255121769</v>
+        <v>0.4402740225836343</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7978838392101814</v>
+        <v>0.7999334767950536</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04419567618375097</v>
+        <v>0.02883013996236034</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1202495879638384</v>
+        <v>-0.1032919978158289</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2074182609957775</v>
+        <v>0.1714780798917949</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.6590175436468643</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.7595023058519751</v>
+        <v>0.7595023058519695</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6716982196384028</v>
+        <v>-1.039650315400306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.149363226634193</v>
+        <v>-4.320162153750874</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.867892239628575</v>
+        <v>-1.696229973980523</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.052127134295163</v>
+        <v>-2.22182257373319</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.926348239441617</v>
+        <v>-2.902773453157447</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.795665160598056</v>
+        <v>-2.856902729538102</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3453646087383156</v>
+        <v>-0.3278727833022176</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.6300660733159</v>
+        <v>-2.950083582379534</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.579642602412569</v>
+        <v>-1.537628661784129</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.103583115313463</v>
+        <v>5.059785286577326</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.442420639827376</v>
+        <v>1.21972125467482</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.469743940377708</v>
+        <v>4.405617706568981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.280982416494427</v>
+        <v>4.915071583296233</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.273698670081677</v>
+        <v>3.935527276463539</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.978537279514491</v>
+        <v>3.743153331925834</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.357079470007521</v>
+        <v>4.078579804394156</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.646222189660023</v>
+        <v>1.274148949494043</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.022087144244238</v>
+        <v>3.258686758405394</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.04836719905512348</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.05574206569173259</v>
+        <v>0.05574206569173218</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.04184227099987012</v>
+        <v>-0.06795706533773681</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.27139405010564</v>
+        <v>-0.2815325824868816</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1245706910819508</v>
+        <v>-0.111433885033418</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1381410283035825</v>
+        <v>-0.1493042095100565</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1963191856196391</v>
+        <v>-0.2057322900455952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1906121493283569</v>
+        <v>-0.1946710396490678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02403571848503569</v>
+        <v>-0.02263270666880545</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.177925976885045</v>
+        <v>-0.1982565076081386</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1075277245845762</v>
+        <v>-0.1004805678195132</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.415050163367779</v>
+        <v>0.4069034036246003</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1197262178576299</v>
+        <v>0.0965481171424265</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3544561801818294</v>
+        <v>0.3507878781917654</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4691311837915227</v>
+        <v>0.4511155069672154</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3836957524631998</v>
+        <v>0.3529272470498355</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.358811726569749</v>
+        <v>0.3408319439824362</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3416755286508911</v>
+        <v>0.3243153805120993</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1331650192590612</v>
+        <v>0.1011449200731518</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2383948800564774</v>
+        <v>0.2619906144645796</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.1801627345971</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.203785799205416</v>
+        <v>5.203785799205418</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.544556021662086</v>
@@ -1520,7 +1520,7 @@
         <v>-0.5236175678569501</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.706299994308514</v>
+        <v>5.706299994308517</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.997263521281415</v>
+        <v>-1.785169323567309</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.604585829858383</v>
+        <v>-7.811327738470107</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8114646723320413</v>
+        <v>1.380263074823918</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.289434760209348</v>
+        <v>-1.24687669725862</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.838234444650147</v>
+        <v>-1.969992710601269</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.859675474106546</v>
+        <v>1.705611719994004</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.2202697215898224</v>
+        <v>-0.3100934759692336</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.011444607121858</v>
+        <v>-3.185485845084209</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.959654636288195</v>
+        <v>2.924586887099484</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.634824085017451</v>
+        <v>8.283519575759909</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9958096911709208</v>
+        <v>1.189511350424655</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.43088087067081</v>
+        <v>11.49462691548936</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.529404302650456</v>
+        <v>5.743157096732341</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.447838814096722</v>
+        <v>4.427383519654084</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.24669408921649</v>
+        <v>8.000239864077544</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.426387615934941</v>
+        <v>5.363720641276758</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.024263843440544</v>
+        <v>2.116767006008534</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.545374383491531</v>
+        <v>8.326080526853968</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1417118071658105</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6248611891316308</v>
+        <v>0.6248611891316311</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2526958418633257</v>
@@ -1625,7 +1625,7 @@
         <v>-0.05199963411990875</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.5666836448916551</v>
+        <v>0.5666836448916553</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1155986974369105</v>
+        <v>-0.1234225828506796</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4814174591726294</v>
+        <v>-0.4976598613921027</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.04938414610251712</v>
+        <v>0.08431725585575976</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.141482008982665</v>
+        <v>-0.1267880930188035</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1819043868507555</v>
+        <v>-0.2019076109595836</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1718622311054216</v>
+        <v>0.1625787782740863</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0313726006606684</v>
+        <v>-0.03059180908051473</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2603005167137993</v>
+        <v>-0.2678916897083329</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2481255203500388</v>
+        <v>0.227229489258725</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7809744813320548</v>
+        <v>0.8134286049361318</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.09725404183924151</v>
+        <v>0.1408858176384033</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.11192422258478</v>
+        <v>1.132868051664107</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8157480034326403</v>
+        <v>0.8719293420987561</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6861492390206345</v>
+        <v>0.6515614984759971</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.250822744852673</v>
+        <v>1.237759657395667</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6166612842476878</v>
+        <v>0.6250545317046897</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2381164947780285</v>
+        <v>0.2493527418417064</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.01050354323409</v>
+        <v>0.9637096980188555</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>1.149370343939018</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.04747166893259991</v>
+        <v>0.04747166893260546</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.292027692123813</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.929429132650777</v>
+        <v>3.18874886978853</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.668825473843608</v>
+        <v>-6.352787786855335</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.806307544336546</v>
+        <v>-9.028338152041822</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.4637903816977508</v>
+        <v>-0.3943155100109113</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.3293888265378822</v>
+        <v>-0.6702375609952769</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.848479667432665</v>
+        <v>-2.064023478009914</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.286452917908316</v>
+        <v>1.503511236330928</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.3382727200256255</v>
+        <v>-0.2519783698297805</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.325811941870251</v>
+        <v>-2.021464791309885</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>17.4639765391783</v>
+        <v>17.64096251583482</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.171251855637161</v>
+        <v>7.441426462381425</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11.50964089743366</v>
+        <v>10.97873796531173</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.176399646958802</v>
+        <v>5.064963247471003</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.931803936817999</v>
+        <v>4.97820530127075</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.084969455892542</v>
+        <v>3.844291253557878</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.597906678570786</v>
+        <v>6.931938939022213</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.860277266335199</v>
+        <v>4.893276625419656</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.143292706561978</v>
+        <v>4.27867262501624</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.05156464267058166</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.002129739694776344</v>
+        <v>0.002129739694776593</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1957869326146618</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1509592081507934</v>
+        <v>0.1187115869020759</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2254607947815621</v>
+        <v>-0.2513995279422026</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3612683690618571</v>
+        <v>-0.3844642334874676</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.03741153082625261</v>
+        <v>-0.02990261701425898</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03079016751415472</v>
+        <v>-0.05020422860577713</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1476893021246111</v>
+        <v>-0.1634634195711291</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08593172591602341</v>
+        <v>0.09626556795064238</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02521434663023744</v>
+        <v>-0.01892973229352474</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1645089531883868</v>
+        <v>-0.1415066310358183</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9428845370627875</v>
+        <v>0.9413296582911413</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4260954889767357</v>
+        <v>0.3962903848548485</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5698389734189129</v>
+        <v>0.5523854067115366</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.484426154141189</v>
+        <v>0.4924162120694514</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4618400323792604</v>
+        <v>0.4749155466099299</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3916529888294028</v>
+        <v>0.3619615817648709</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5169354400739186</v>
+        <v>0.5323238735410859</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3927049054769408</v>
+        <v>0.3862169921964507</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.31581258305508</v>
+        <v>0.3337787528499035</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.01559576865653808</v>
+        <v>0.06449857490802953</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.040794529246716</v>
+        <v>-4.170725256486845</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.8680792614742669</v>
+        <v>-0.8294940242922667</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.685756664417307</v>
+        <v>-0.6806932865887227</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.4849448501018822</v>
+        <v>-0.5035705496202316</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8308212153036563</v>
+        <v>-0.8328075166528559</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.09216275781105923</v>
+        <v>0.2430687960041667</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.769458849094898</v>
+        <v>-1.731199344118543</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.2561385590210362</v>
+        <v>-0.3409024481635122</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.602046951998479</v>
+        <v>3.745434515531501</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.5475354609180231</v>
+        <v>-0.6133801153265592</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.104112359248189</v>
+        <v>3.087506717315819</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.654053319250213</v>
+        <v>2.640263718515521</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.797255011082966</v>
+        <v>2.758228326978516</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.398318866270699</v>
+        <v>2.323118158737562</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.652171810704931</v>
+        <v>2.690810886045716</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6559280375880848</v>
+        <v>0.5710692881358725</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.314839795064518</v>
+        <v>2.184579759822278</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-4.561091237985632e-05</v>
+        <v>0.00305638761658337</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2429329770978929</v>
+        <v>-0.2486442136727621</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05241189946771681</v>
+        <v>-0.04979756467214274</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.04942128903050923</v>
+        <v>-0.05104811393854199</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03664046731303867</v>
+        <v>-0.03775590794073468</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.06283408066297121</v>
+        <v>-0.06305390596726096</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.004166617481658281</v>
+        <v>0.01443441498599741</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1185012840566408</v>
+        <v>-0.1168973043316504</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.01819503928387609</v>
+        <v>-0.02302374881362285</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2408919986453436</v>
+        <v>0.2538207069811824</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.03712895435778853</v>
+        <v>-0.04053700838761651</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2080592132641738</v>
+        <v>0.2094264743051314</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2318265731025815</v>
+        <v>0.2315451823099648</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2384302803274762</v>
+        <v>0.2401711893470274</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2060519118888194</v>
+        <v>0.1995391723690865</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1932606779917781</v>
+        <v>0.1989853570456927</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.04981267565451783</v>
+        <v>0.0425437947187476</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1734714533871009</v>
+        <v>0.1640011768142208</v>
       </c>
     </row>
     <row r="46">
